--- a/tests/test_data/grid3.xlsx
+++ b/tests/test_data/grid3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEGASync\IT\Projects\Git\Indev\vstu_xls\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE740B-955A-427C-87FB-7239C35033F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFF3147-0872-413F-9EA2-03A11F5F2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,16 +120,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,11 +157,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,16 +204,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +532,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,19 +561,19 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -537,24 +582,24 @@
     </row>
     <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
